--- a/excelTemplate/LogisticsPaymentNoteTemplate.xlsx
+++ b/excelTemplate/LogisticsPaymentNoteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>CONTAINER#</t>
   </si>
@@ -182,6 +182,13 @@
   <si>
     <t>EMPTY RETURN DATE</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMARK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_remark%&gt;</t>
   </si>
 </sst>
 </file>
@@ -189,7 +196,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -305,19 +312,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -601,11 +608,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -623,10 +628,11 @@
     <col min="17" max="17" width="14" style="1" customWidth="1"/>
     <col min="18" max="18" width="14.75" style="1" customWidth="1"/>
     <col min="19" max="19" width="15" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.75" style="1"/>
+    <col min="20" max="20" width="17.75" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -684,8 +690,11 @@
       <c r="S1" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="T1" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -742,6 +751,9 @@
       </c>
       <c r="S2" s="9" t="s">
         <v>35</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -753,10 +765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -779,11 +791,11 @@
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
     <col min="17" max="17" width="17.125" style="2" customWidth="1"/>
     <col min="18" max="18" width="17.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="17.25" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.75" style="2"/>
+    <col min="19" max="20" width="17.25" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -841,8 +853,11 @@
       <c r="S1" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="T1" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
@@ -899,6 +914,9 @@
       </c>
       <c r="S2" s="9" t="s">
         <v>35</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
